--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4ED6D7-B5E9-4C9E-998E-BBC436384225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SRSG" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,70 +654,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,8 +770,26 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,8 +820,26 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +870,26 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,8 +902,14 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +940,26 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,40 +990,76 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -989,8 +1090,26 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,40 +1119,64 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,31 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1239,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,8 +1277,26 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1142,72 +1327,126 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,8 +1477,26 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1527,126 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,8 +1677,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1398,8 +1727,26 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1777,26 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,8 +1827,26 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1494,40 +1877,76 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1977,131 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +2114,14 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,40 +2134,64 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1719,8 +2222,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1751,63 +2272,99 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1815,31 +2372,49 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -1847,8 +2422,26 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,8 +2472,26 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1911,40 +2522,76 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>300</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2622,26 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,8 +2672,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2039,8 +2722,26 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,40 +2772,76 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2854,14 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,28 +2874,34 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2163,31 +2912,49 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2195,8 +2962,26 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2210,10 +2995,10 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2227,31 +3012,49 @@
       <c r="L59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
-        <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -2259,8 +3062,26 @@
       <c r="L60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2291,8 +3112,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2323,8 +3162,26 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +3212,26 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +3262,26 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,31 +3312,49 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
-        <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -2451,8 +3362,26 @@
       <c r="L66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +3394,14 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +3432,26 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +3482,26 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +3532,26 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +3582,76 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +3682,26 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +3732,26 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,25 +3782,43 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
-      </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -2753,8 +3832,26 @@
       <c r="L76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +3882,131 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,8 +4019,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2900,8 +4057,26 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +4107,26 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +4157,26 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +4207,26 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +4257,26 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,31 +4307,49 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3092,8 +4357,26 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,8 +4389,14 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3138,8 +4427,26 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +4477,26 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,40 +4527,76 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,8 +4609,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3280,8 +4647,26 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +4697,26 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +4747,26 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,40 +4797,76 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3440,36 +4897,72 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1040,12 +1060,12 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,11 +1161,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1146,23 +1173,23 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,11 +1214,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1196,23 +1226,23 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1369,11 +1409,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1416,23 +1459,23 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1566,23 +1618,23 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1616,23 +1671,23 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -1916,23 +1989,23 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2016,23 +2095,23 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2158,17 +2245,17 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2314,11 +2410,11 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2334,25 +2430,28 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2363,11 +2462,11 @@
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,7 +2504,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2411,13 +2513,13 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2566,8 +2677,8 @@
       <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2584,14 +2695,17 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2805,7 +2931,7 @@
         <v>400</v>
       </c>
       <c r="G54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>500</v>
@@ -2814,11 +2940,11 @@
         <v>500</v>
       </c>
       <c r="J54" s="3">
+        <v>500</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2904,7 +3035,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2930,13 +3061,16 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2945,19 +3079,19 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>800</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3013,13 +3150,13 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,28 +3179,28 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3069,7 +3209,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3078,10 +3218,13 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,28 +3497,28 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>900</v>
       </c>
       <c r="K66" s="3">
+        <v>900</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3369,7 +3527,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -3378,10 +3536,13 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
+        <v>300</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,25 +3783,25 @@
         <v>-1400</v>
       </c>
       <c r="E72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1200</v>
       </c>
       <c r="G72" s="3">
         <v>-1200</v>
       </c>
       <c r="H72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-600</v>
       </c>
       <c r="L72" s="3">
         <v>-600</v>
@@ -3636,7 +3810,7 @@
         <v>-600</v>
       </c>
       <c r="N72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="O72" s="3">
         <v>-400</v>
@@ -3648,10 +3822,13 @@
         <v>-400</v>
       </c>
       <c r="R72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,19 +3983,22 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -3830,7 +4016,7 @@
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -3839,7 +4025,7 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -3848,10 +4034,13 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -3976,23 +4171,23 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4340,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4569,11 +4799,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4836,14 +5082,14 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4936,14 +5188,14 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,23 +1059,23 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1063,12 +1083,12 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,11 +1191,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1176,23 +1203,23 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,11 +1247,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1229,23 +1259,23 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,11 +1452,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1450,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1462,23 +1505,23 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1609,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1621,23 +1673,23 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1674,23 +1729,23 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -1992,23 +2065,23 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2086,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -2098,23 +2177,23 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2248,17 +2335,17 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2413,11 +2509,11 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2433,14 +2529,17 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2450,11 +2549,11 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2465,11 +2564,11 @@
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2507,7 +2609,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2516,13 +2618,13 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2680,8 +2791,8 @@
       <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>300</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2934,7 +3060,7 @@
         <v>400</v>
       </c>
       <c r="H54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>500</v>
@@ -2943,11 +3069,11 @@
         <v>500</v>
       </c>
       <c r="K54" s="3">
+        <v>500</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3038,7 +3169,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3082,19 +3216,19 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -3117,13 +3251,16 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3153,13 +3290,13 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3170,40 +3307,43 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3212,7 +3352,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -3221,10 +3361,13 @@
         <v>300</v>
       </c>
       <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,40 +3643,43 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
       </c>
       <c r="J66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3530,7 +3688,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -3539,10 +3697,13 @@
         <v>300</v>
       </c>
       <c r="S66" s="3">
+        <v>300</v>
+      </c>
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,37 +3945,40 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E72" s="3">
         <v>-1400</v>
       </c>
       <c r="F72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1200</v>
       </c>
       <c r="H72" s="3">
         <v>-1200</v>
       </c>
       <c r="I72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-600</v>
       </c>
       <c r="M72" s="3">
         <v>-600</v>
@@ -3813,7 +3987,7 @@
         <v>-600</v>
       </c>
       <c r="O72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="P72" s="3">
         <v>-400</v>
@@ -3825,10 +3999,13 @@
         <v>-400</v>
       </c>
       <c r="S72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,13 +4181,13 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -4019,7 +4205,7 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -4028,7 +4214,7 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
@@ -4037,10 +4223,13 @@
         <v>-300</v>
       </c>
       <c r="S76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4162,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -4174,23 +4369,23 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4560,19 +4777,19 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4802,11 +5032,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5085,14 +5331,14 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5191,14 +5443,14 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,23 +1081,23 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1086,12 +1105,12 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1194,11 +1220,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1206,23 +1232,23 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1250,11 +1279,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1262,23 +1291,23 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1455,11 +1494,11 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1496,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1508,23 +1550,23 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1676,23 +1727,23 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1705,8 +1756,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1720,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1732,23 +1786,23 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2110,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2056,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -2068,23 +2140,23 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2168,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2180,23 +2258,23 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2338,17 +2424,17 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2512,11 +2607,11 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2532,14 +2627,17 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2552,11 +2650,11 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2567,11 +2665,11 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2612,7 +2713,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2621,13 +2722,13 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2794,8 +2904,8 @@
       <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -2812,14 +2922,17 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3063,7 +3188,7 @@
         <v>400</v>
       </c>
       <c r="I54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>500</v>
@@ -3072,11 +3197,11 @@
         <v>500</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3172,7 +3302,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,7 +3343,7 @@
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3219,19 +3352,19 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,7 +3399,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3293,13 +3429,13 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,34 +3458,34 @@
         <v>900</v>
       </c>
       <c r="E60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
       <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3355,7 +3494,7 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
@@ -3364,10 +3503,13 @@
         <v>300</v>
       </c>
       <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,34 +3812,34 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
       </c>
       <c r="K66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
       <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -3691,7 +3848,7 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -3700,10 +3857,13 @@
         <v>300</v>
       </c>
       <c r="T66" s="3">
+        <v>300</v>
+      </c>
+      <c r="U66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,31 +4130,31 @@
         <v>-1500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F72" s="3">
         <v>-1400</v>
       </c>
       <c r="G72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1200</v>
       </c>
       <c r="I72" s="3">
         <v>-1200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-600</v>
       </c>
       <c r="N72" s="3">
         <v>-600</v>
@@ -3990,7 +4163,7 @@
         <v>-600</v>
       </c>
       <c r="P72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="Q72" s="3">
         <v>-400</v>
@@ -4002,10 +4175,13 @@
         <v>-400</v>
       </c>
       <c r="T72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4184,13 +4369,13 @@
         <v>-500</v>
       </c>
       <c r="F76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -4208,7 +4393,7 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4217,7 +4402,7 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
@@ -4226,10 +4411,13 @@
         <v>-300</v>
       </c>
       <c r="T76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4360,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -4372,23 +4566,23 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4780,19 +4996,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5035,11 +5264,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5334,14 +5579,14 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5446,14 +5697,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,23 +1104,23 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1108,12 +1128,12 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1223,11 +1250,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1235,23 +1262,23 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1282,11 +1312,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1294,23 +1324,23 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1497,11 +1537,11 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1553,23 +1596,23 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1718,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1730,23 +1782,23 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1759,8 +1811,11 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1789,23 +1844,23 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2143,23 +2216,23 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2261,23 +2340,23 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2427,17 +2514,17 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2610,11 +2706,11 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2630,14 +2726,17 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2653,11 +2752,11 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2668,11 +2767,11 @@
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2716,7 +2818,7 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
@@ -2725,13 +2827,13 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2907,8 +3018,8 @@
       <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -2925,14 +3036,17 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3191,7 +3317,7 @@
         <v>400</v>
       </c>
       <c r="J54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>500</v>
@@ -3200,11 +3326,11 @@
         <v>500</v>
       </c>
       <c r="M54" s="3">
+        <v>500</v>
+      </c>
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3305,7 +3436,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3346,7 +3480,7 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -3355,19 +3489,19 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3402,7 +3539,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3432,13 +3569,13 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3461,34 +3601,34 @@
         <v>900</v>
       </c>
       <c r="F60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3497,7 +3637,7 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
@@ -3506,10 +3646,13 @@
         <v>300</v>
       </c>
       <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3815,34 +3973,34 @@
         <v>900</v>
       </c>
       <c r="F66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
       </c>
       <c r="H66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -3851,7 +4009,7 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
@@ -3860,10 +4018,13 @@
         <v>300</v>
       </c>
       <c r="U66" s="3">
+        <v>300</v>
+      </c>
+      <c r="V66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4133,31 +4307,31 @@
         <v>-1500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G72" s="3">
         <v>-1400</v>
       </c>
       <c r="H72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1200</v>
       </c>
       <c r="J72" s="3">
         <v>-1200</v>
       </c>
       <c r="K72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-600</v>
       </c>
       <c r="O72" s="3">
         <v>-600</v>
@@ -4166,7 +4340,7 @@
         <v>-600</v>
       </c>
       <c r="Q72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="R72" s="3">
         <v>-400</v>
@@ -4178,10 +4352,13 @@
         <v>-400</v>
       </c>
       <c r="U72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,13 +4540,16 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-500</v>
@@ -4372,13 +4558,13 @@
         <v>-500</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4396,7 +4582,7 @@
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -4405,7 +4591,7 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
@@ -4414,10 +4600,13 @@
         <v>-300</v>
       </c>
       <c r="U76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4557,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4569,23 +4764,23 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4999,19 +5216,19 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5267,11 +5497,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5582,14 +5828,14 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5700,14 +5952,14 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,39 +1147,39 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1253,38 +1307,38 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1294,8 +1348,14 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1315,38 +1375,38 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1416,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1578,14 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1540,14 +1620,14 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1566,8 +1646,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1587,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1599,26 +1685,26 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1714,14 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1773,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1785,26 +1889,26 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1814,8 +1918,14 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1835,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1847,26 +1957,26 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1986,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2326,14 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2207,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2219,26 +2365,26 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2394,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2331,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2343,26 +2501,26 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2530,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2517,20 +2691,20 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2723,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2709,14 +2901,14 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2729,40 +2921,46 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2770,14 +2968,14 @@
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2797,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2821,26 +3025,26 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +3063,14 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3021,11 +3243,11 @@
       <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>300</v>
+      </c>
+      <c r="P49" s="3">
+        <v>300</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -3039,14 +3261,20 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3320,23 +3572,23 @@
         <v>400</v>
       </c>
       <c r="K54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>500</v>
       </c>
       <c r="N54" s="3">
+        <v>500</v>
+      </c>
+      <c r="O54" s="3">
+        <v>500</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3607,14 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,16 +3663,18 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3439,10 +3701,10 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3465,8 +3727,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3483,31 +3751,31 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3527,13 +3795,19 @@
       <c r="V58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3542,10 +3816,10 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3572,16 +3846,16 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -3589,70 +3863,82 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
       </c>
       <c r="V60" s="3">
+        <v>300</v>
+      </c>
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+      <c r="X60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F66" s="3">
         <v>900</v>
       </c>
       <c r="G66" s="3">
+        <v>900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>900</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
       </c>
       <c r="V66" s="3">
+        <v>300</v>
+      </c>
+      <c r="W66" s="3">
+        <v>300</v>
+      </c>
+      <c r="X66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,58 +4637,64 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F72" s="3">
         <v>-1500</v>
       </c>
       <c r="G72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-600</v>
       </c>
       <c r="Q72" s="3">
         <v>-600</v>
       </c>
       <c r="R72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="S72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="T72" s="3">
         <v>-400</v>
@@ -4355,10 +4703,16 @@
         <v>-400</v>
       </c>
       <c r="V72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,34 +4909,40 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
-        <v>-500</v>
-      </c>
       <c r="F76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
       </c>
       <c r="H76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -4585,28 +4957,34 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-300</v>
       </c>
       <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4755,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -4767,26 +5157,26 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +5186,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5219,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5228,13 +5662,13 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5500,14 +5960,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5831,17 +6323,17 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5955,17 +6459,17 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,23 +1172,23 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1177,12 +1196,12 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1313,11 +1339,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1325,23 +1351,23 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,11 +1410,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1393,23 +1422,23 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,22 +1549,25 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1626,11 +1665,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1652,20 +1691,23 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1679,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1691,23 +1733,23 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,20 +1904,23 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1883,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1895,23 +1946,23 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -1924,20 +1975,23 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1951,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1963,23 +2017,23 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,20 +2401,23 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2359,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2371,23 +2443,23 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,20 +2543,23 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2495,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2507,23 +2585,23 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2697,17 +2783,17 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2907,11 +3002,11 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2927,14 +3022,17 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2963,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2974,11 +3072,11 @@
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3031,7 +3132,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -3040,13 +3141,13 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3249,8 +3359,8 @@
       <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -3267,14 +3377,17 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3578,7 +3703,7 @@
         <v>400</v>
       </c>
       <c r="M54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>500</v>
@@ -3587,11 +3712,11 @@
         <v>500</v>
       </c>
       <c r="P54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3677,7 +3807,7 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3707,7 +3837,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3757,7 +3890,7 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -3766,19 +3899,19 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,7 +3946,7 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3822,7 +3958,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3852,13 +3988,13 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -3869,19 +4005,22 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
       </c>
       <c r="F60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
@@ -3890,34 +4029,34 @@
         <v>900</v>
       </c>
       <c r="I60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>700</v>
       </c>
       <c r="M60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
       </c>
       <c r="Q60" s="3">
+        <v>900</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -3926,7 +4065,7 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
@@ -3935,10 +4074,13 @@
         <v>300</v>
       </c>
       <c r="X60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,19 +4431,22 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
@@ -4298,34 +4455,34 @@
         <v>900</v>
       </c>
       <c r="I66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
       </c>
       <c r="K66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
       </c>
       <c r="M66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
       </c>
       <c r="Q66" s="3">
+        <v>900</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4334,7 +4491,7 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
@@ -4343,10 +4500,13 @@
         <v>300</v>
       </c>
       <c r="X66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,19 +4813,22 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E72" s="3">
         <v>-1600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G72" s="3">
         <v>-1500</v>
@@ -4664,31 +4837,31 @@
         <v>-1500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J72" s="3">
         <v>-1400</v>
       </c>
       <c r="K72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1200</v>
       </c>
       <c r="M72" s="3">
         <v>-1200</v>
       </c>
       <c r="N72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-600</v>
       </c>
       <c r="R72" s="3">
         <v>-600</v>
@@ -4697,7 +4870,7 @@
         <v>-600</v>
       </c>
       <c r="T72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="U72" s="3">
         <v>-400</v>
@@ -4709,10 +4882,13 @@
         <v>-400</v>
       </c>
       <c r="X72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5097,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,13 +5109,13 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-600</v>
       </c>
       <c r="G76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H76" s="3">
         <v>-500</v>
@@ -4939,13 +5124,13 @@
         <v>-500</v>
       </c>
       <c r="J76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -4963,7 +5148,7 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
@@ -4972,7 +5157,7 @@
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-300</v>
@@ -4981,10 +5166,13 @@
         <v>-300</v>
       </c>
       <c r="X76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,93 +5239,99 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -5151,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -5163,23 +5357,23 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5659,19 +5875,19 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5966,11 +6195,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6329,14 +6574,14 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6465,14 +6716,14 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,39 +1215,39 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1342,38 +1396,38 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1383,8 +1437,14 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,38 +1473,38 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1454,8 +1514,14 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1620,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1569,11 +1643,11 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1668,14 +1748,14 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1694,13 +1774,19 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1712,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1724,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1736,26 +1822,26 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -1765,8 +1851,14 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +2005,14 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1925,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1937,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1949,26 +2053,26 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -1978,8 +2082,14 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -2008,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -2020,26 +2130,26 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2049,8 +2159,14 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,8 +2544,14 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2422,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2434,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2446,26 +2592,26 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2475,8 +2621,14 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2698,14 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2564,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2576,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2588,26 +2746,26 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2617,84 +2775,96 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2786,20 +2960,20 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3005,14 +3197,14 @@
         <v>100</v>
       </c>
       <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3025,14 +3217,20 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3064,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3075,14 +3273,14 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3102,8 +3300,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3135,26 +3339,26 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -3173,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3362,11 +3584,11 @@
       <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>300</v>
+      </c>
+      <c r="S49" s="3">
+        <v>300</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -3380,14 +3602,20 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3916,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3706,23 +3958,23 @@
         <v>400</v>
       </c>
       <c r="N54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>500</v>
       </c>
       <c r="Q54" s="3">
+        <v>500</v>
+      </c>
+      <c r="R54" s="3">
+        <v>500</v>
+      </c>
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3810,10 +4072,10 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3840,10 +4102,10 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3866,8 +4128,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3893,31 +4161,31 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -3937,22 +4205,28 @@
       <c r="Y58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3961,10 +4235,10 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3991,16 +4265,16 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
@@ -4008,79 +4282,91 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>300</v>
       </c>
       <c r="Y60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
       </c>
       <c r="J66" s="3">
+        <v>900</v>
+      </c>
+      <c r="K66" s="3">
+        <v>900</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>300</v>
       </c>
       <c r="Y66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,67 +5158,73 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1500</v>
       </c>
       <c r="I72" s="3">
         <v>-1500</v>
       </c>
       <c r="J72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-700</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-600</v>
       </c>
       <c r="T72" s="3">
         <v>-600</v>
       </c>
       <c r="U72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="V72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="W72" s="3">
         <v>-400</v>
@@ -4885,10 +5233,16 @@
         <v>-400</v>
       </c>
       <c r="Y72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,43 +5466,49 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-500</v>
       </c>
       <c r="J76" s="3">
         <v>-500</v>
       </c>
       <c r="K76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -5151,28 +5523,34 @@
         <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
       <c r="V76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="W76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-300</v>
       </c>
       <c r="Y76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5620,96 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5336,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -5348,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -5360,26 +5750,26 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5389,8 +5779,14 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5878,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5887,13 +6321,13 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6198,14 +6658,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6577,17 +7069,17 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6719,17 +7223,17 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -1785,8 +1785,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1221,23 +1241,23 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1245,12 +1265,12 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,11 +1429,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1414,23 +1441,23 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1479,11 +1509,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1491,23 +1521,23 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1649,8 +1686,8 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1754,11 +1794,11 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,20 +1832,20 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1816,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1828,23 +1871,23 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,20 +2072,20 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -2047,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -2059,23 +2111,23 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
@@ -2088,8 +2140,11 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,20 +2152,20 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -2124,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -2136,23 +2191,23 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2559,20 +2632,20 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2586,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2598,23 +2671,23 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2713,20 +2792,20 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2740,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2752,23 +2831,23 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2966,17 +3053,17 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3203,11 +3299,11 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3223,14 +3319,17 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3268,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3279,11 +3378,11 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3345,7 +3447,7 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -3354,13 +3456,13 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3590,8 +3701,8 @@
       <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>300</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3608,14 +3719,17 @@
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3964,7 +4090,7 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>500</v>
@@ -3973,11 +4099,11 @@
         <v>500</v>
       </c>
       <c r="S54" s="3">
+        <v>500</v>
+      </c>
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4078,7 +4209,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4108,7 +4239,7 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4134,13 +4265,16 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -4167,7 +4301,7 @@
         <v>600</v>
       </c>
       <c r="M58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -4176,19 +4310,19 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>800</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,7 +4357,7 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -4229,7 +4366,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -4241,7 +4378,7 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -4271,13 +4408,13 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4297,19 +4437,19 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>1000</v>
       </c>
       <c r="I60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
@@ -4318,34 +4458,34 @@
         <v>900</v>
       </c>
       <c r="L60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
       <c r="P60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
       </c>
       <c r="T60" s="3">
+        <v>900</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -4354,7 +4494,7 @@
         <v>200</v>
       </c>
       <c r="X60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>300</v>
@@ -4363,10 +4503,13 @@
         <v>300</v>
       </c>
       <c r="AA60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,19 +4917,19 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>1000</v>
       </c>
       <c r="I66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>900</v>
@@ -4780,34 +4938,34 @@
         <v>900</v>
       </c>
       <c r="L66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
       </c>
       <c r="N66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
       <c r="P66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>900</v>
       </c>
       <c r="T66" s="3">
+        <v>900</v>
+      </c>
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -4816,7 +4974,7 @@
         <v>200</v>
       </c>
       <c r="X66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>300</v>
@@ -4825,10 +4983,13 @@
         <v>300</v>
       </c>
       <c r="AA66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,19 +5347,19 @@
         <v>-1800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F72" s="3">
         <v>-1700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H72" s="3">
         <v>-1600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J72" s="3">
         <v>-1500</v>
@@ -5194,31 +5368,31 @@
         <v>-1500</v>
       </c>
       <c r="L72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="M72" s="3">
         <v>-1400</v>
       </c>
       <c r="N72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1200</v>
       </c>
       <c r="P72" s="3">
         <v>-1200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-700</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-600</v>
       </c>
       <c r="U72" s="3">
         <v>-600</v>
@@ -5227,7 +5401,7 @@
         <v>-600</v>
       </c>
       <c r="W72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="X72" s="3">
         <v>-400</v>
@@ -5239,10 +5413,13 @@
         <v>-400</v>
       </c>
       <c r="AA72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,31 +5655,34 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E76" s="3">
         <v>-800</v>
       </c>
       <c r="F76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
       </c>
       <c r="H76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-600</v>
       </c>
       <c r="J76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K76" s="3">
         <v>-500</v>
@@ -5505,13 +5691,13 @@
         <v>-500</v>
       </c>
       <c r="M76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -5529,7 +5715,7 @@
         <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
@@ -5538,7 +5724,7 @@
         <v>-200</v>
       </c>
       <c r="X76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y76" s="3">
         <v>-300</v>
@@ -5547,10 +5733,13 @@
         <v>-300</v>
       </c>
       <c r="AA76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5717,20 +5912,20 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -5744,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -5756,23 +5951,23 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6318,19 +6535,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6664,11 +6894,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7075,14 +7321,14 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7229,14 +7481,14 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +859,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1222,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1244,23 +1263,23 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1268,12 +1287,12 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,13 +1418,14 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1432,11 +1458,11 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1444,23 +1470,23 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1473,8 +1499,11 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1524,23 +1553,23 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1582,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1696,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1689,8 +1725,8 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1779,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1797,11 +1836,11 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1823,8 +1862,11 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1835,20 +1877,20 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1862,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1874,23 +1916,23 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -1903,8 +1945,11 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2111,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2075,20 +2126,20 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -2114,23 +2165,23 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2143,8 +2194,11 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2155,20 +2209,20 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -2182,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -2194,23 +2248,23 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2223,8 +2277,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,8 +2692,11 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2635,20 +2707,20 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2662,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2674,23 +2746,23 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2703,8 +2775,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2858,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2795,20 +2873,20 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2822,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2834,23 +2912,23 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2863,93 +2941,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3056,17 +3142,17 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3174,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,13 +3340,16 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -3302,11 +3397,11 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3322,14 +3417,17 @@
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3370,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3381,11 +3479,11 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3408,13 +3506,16 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3450,7 +3551,7 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -3459,13 +3560,13 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3704,8 +3814,8 @@
       <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
+      <c r="U49" s="3">
+        <v>300</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
@@ -3722,14 +3832,17 @@
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA49" s="3">
-        <v>0</v>
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,13 +4170,16 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -4093,7 +4218,7 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>500</v>
@@ -4102,11 +4227,11 @@
         <v>500</v>
       </c>
       <c r="T54" s="3">
+        <v>500</v>
+      </c>
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4212,7 +4342,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4242,7 +4372,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -4268,8 +4398,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,7 +4410,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -4304,7 +4437,7 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -4313,19 +4446,19 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>800</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
@@ -4348,8 +4481,11 @@
       <c r="AB58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4360,7 +4496,7 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -4369,7 +4505,7 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -4381,7 +4517,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -4411,13 +4547,13 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
@@ -4428,31 +4564,34 @@
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
       </c>
       <c r="F60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
       </c>
       <c r="H60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
@@ -4461,34 +4600,34 @@
         <v>900</v>
       </c>
       <c r="M60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>700</v>
       </c>
       <c r="Q60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R60" s="3">
         <v>800</v>
       </c>
       <c r="S60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T60" s="3">
         <v>900</v>
       </c>
       <c r="U60" s="3">
+        <v>900</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
@@ -4497,7 +4636,7 @@
         <v>200</v>
       </c>
       <c r="Y60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>300</v>
@@ -4506,10 +4645,13 @@
         <v>300</v>
       </c>
       <c r="AB60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,31 +5062,34 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
       </c>
       <c r="F66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
       </c>
       <c r="H66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
       </c>
       <c r="J66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
@@ -4941,34 +5098,34 @@
         <v>900</v>
       </c>
       <c r="M66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>700</v>
       </c>
       <c r="Q66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R66" s="3">
         <v>800</v>
       </c>
       <c r="S66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>900</v>
       </c>
       <c r="U66" s="3">
+        <v>900</v>
+      </c>
+      <c r="V66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
@@ -4977,7 +5134,7 @@
         <v>200</v>
       </c>
       <c r="Y66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z66" s="3">
         <v>300</v>
@@ -4986,10 +5143,13 @@
         <v>300</v>
       </c>
       <c r="AB66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,31 +5508,34 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="E72" s="3">
         <v>-1800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G72" s="3">
         <v>-1700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I72" s="3">
         <v>-1600</v>
       </c>
       <c r="J72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K72" s="3">
         <v>-1500</v>
@@ -5371,31 +5544,31 @@
         <v>-1500</v>
       </c>
       <c r="M72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="N72" s="3">
         <v>-1400</v>
       </c>
       <c r="O72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q72" s="3">
         <v>-1200</v>
       </c>
       <c r="R72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-600</v>
       </c>
       <c r="V72" s="3">
         <v>-600</v>
@@ -5404,7 +5577,7 @@
         <v>-600</v>
       </c>
       <c r="X72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="Y72" s="3">
         <v>-400</v>
@@ -5416,10 +5589,13 @@
         <v>-400</v>
       </c>
       <c r="AB72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,34 +5840,37 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-800</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
       </c>
       <c r="G76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-700</v>
       </c>
       <c r="I76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J76" s="3">
         <v>-600</v>
       </c>
       <c r="K76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="L76" s="3">
         <v>-500</v>
@@ -5694,13 +5879,13 @@
         <v>-500</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
@@ -5718,7 +5903,7 @@
         <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
@@ -5727,7 +5912,7 @@
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Z76" s="3">
         <v>-300</v>
@@ -5736,10 +5921,13 @@
         <v>-300</v>
       </c>
       <c r="AB76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6006,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5915,20 +6109,20 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -5942,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -5954,23 +6148,23 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6177,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6538,19 +6754,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6897,11 +7126,11 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7324,14 +7569,14 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7484,14 +7735,14 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,20 +1259,26 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,39 +1306,39 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,20 +1471,22 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1461,38 +1515,38 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
@@ -1502,8 +1556,14 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1514,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1544,38 +1604,38 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
@@ -1585,8 +1645,14 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,8 +1767,14 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1728,11 +1802,11 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1782,8 +1856,14 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1839,14 +1919,14 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
@@ -1865,8 +1945,14 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1880,7 +1966,7 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1895,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1907,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1919,26 +2005,26 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
@@ -1948,8 +2034,14 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2212,14 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +2233,7 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -2144,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2156,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -2168,26 +2272,26 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
@@ -2197,8 +2301,14 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2212,7 +2322,7 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -2227,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -2239,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -2251,26 +2361,26 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2390,14 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2695,8 +2835,14 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2710,7 +2856,7 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -2725,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -2737,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2749,26 +2895,26 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
@@ -2778,8 +2924,14 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +3013,14 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2876,7 +3034,7 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2891,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2903,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2915,26 +3073,26 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
@@ -2944,96 +3102,108 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3266,10 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3145,20 +3319,20 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -3177,8 +3351,14 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,19 +3529,25 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -3400,14 +3592,14 @@
         <v>100</v>
       </c>
       <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3420,14 +3612,20 @@
       <c r="AA44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3471,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3482,14 +3680,14 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3509,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3518,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3554,26 +3758,26 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3592,8 +3796,14 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3758,8 +3974,14 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3817,11 +4039,11 @@
       <c r="U49" s="3">
         <v>300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>300</v>
+      </c>
+      <c r="W49" s="3">
+        <v>300</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
@@ -3835,14 +4057,20 @@
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,8 +4419,14 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4182,10 +4434,10 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
@@ -4221,23 +4473,23 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T54" s="3">
         <v>500</v>
       </c>
       <c r="U54" s="3">
+        <v>500</v>
+      </c>
+      <c r="V54" s="3">
+        <v>500</v>
+      </c>
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
@@ -4256,8 +4508,14 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4345,10 +4607,10 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4375,10 +4637,10 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -4401,8 +4663,14 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4413,10 +4681,10 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -4440,31 +4708,31 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>500</v>
       </c>
       <c r="R58" s="3">
+        <v>500</v>
+      </c>
+      <c r="S58" s="3">
+        <v>500</v>
+      </c>
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
@@ -4484,13 +4752,19 @@
       <c r="AC58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
@@ -4499,19 +4773,19 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -4520,10 +4794,10 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -4550,16 +4824,16 @@
         <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
@@ -4567,91 +4841,103 @@
       <c r="AC59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
       </c>
       <c r="Z60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>300</v>
       </c>
       <c r="AC60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>200</v>
       </c>
       <c r="Z66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>300</v>
       </c>
       <c r="AC66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,79 +5853,85 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1500</v>
       </c>
       <c r="M72" s="3">
         <v>-1500</v>
       </c>
       <c r="N72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-700</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-600</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-600</v>
       </c>
       <c r="X72" s="3">
         <v>-600</v>
       </c>
       <c r="Y72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="Z72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="AA72" s="3">
         <v>-400</v>
@@ -5592,10 +5940,16 @@
         <v>-400</v>
       </c>
       <c r="AC72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,55 +6209,61 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
       </c>
       <c r="O76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
@@ -5906,28 +6278,34 @@
         <v>-300</v>
       </c>
       <c r="W76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Y76" s="3">
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AA76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB76" s="3">
         <v>-300</v>
       </c>
       <c r="AC76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6387,108 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6112,7 +6502,7 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -6127,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -6139,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -6151,26 +6541,26 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
@@ -6180,8 +6570,14 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6757,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -6766,13 +7200,13 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7129,14 +7589,14 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7572,17 +8064,17 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7601,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7738,17 +8242,17 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7765,6 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRSG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>SRSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,12 +1296,12 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1312,23 +1332,23 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1336,12 +1356,12 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,11 +1512,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1521,11 +1548,11 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1533,23 +1560,23 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
@@ -1562,8 +1589,11 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,11 +1604,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1610,11 +1640,11 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1622,23 +1652,23 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1785,11 +1822,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
@@ -1808,8 +1845,8 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1925,11 +1965,11 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -1951,13 +1991,16 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1972,20 +2015,20 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1999,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -2011,23 +2054,23 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,13 +2267,16 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2239,20 +2291,20 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -2266,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -2278,23 +2330,23 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
@@ -2307,13 +2359,16 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2328,20 +2383,20 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -2355,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -2367,23 +2422,23 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2841,13 +2911,16 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2862,20 +2935,20 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2889,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2901,23 +2974,23 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,13 +3095,16 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -3040,20 +3119,20 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -3067,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -3079,23 +3158,23 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3325,17 +3412,17 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3546,11 +3642,11 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -3598,11 +3694,11 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3618,14 +3714,17 @@
       <c r="AC44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD44" s="3">
-        <v>0</v>
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3675,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3686,11 +3785,11 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3728,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3764,7 +3866,7 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3773,13 +3875,13 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4045,8 +4156,8 @@
       <c r="W49" s="3">
         <v>300</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
+      <c r="X49" s="3">
+        <v>300</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
@@ -4063,14 +4174,17 @@
       <c r="AC49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD49" s="3">
-        <v>0</v>
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4440,7 +4566,7 @@
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
@@ -4479,7 +4605,7 @@
         <v>400</v>
       </c>
       <c r="T54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U54" s="3">
         <v>500</v>
@@ -4488,11 +4614,11 @@
         <v>500</v>
       </c>
       <c r="W54" s="3">
+        <v>500</v>
+      </c>
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4613,7 +4744,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -4643,7 +4774,7 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4687,7 +4821,7 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -4714,7 +4848,7 @@
         <v>600</v>
       </c>
       <c r="Q58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
@@ -4723,19 +4857,19 @@
         <v>500</v>
       </c>
       <c r="T58" s="3">
+        <v>500</v>
+      </c>
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
-      </c>
-      <c r="V58" s="3">
-        <v>800</v>
       </c>
       <c r="W58" s="3">
         <v>800</v>
       </c>
       <c r="X58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,7 +4904,7 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -4779,7 +4916,7 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -4788,7 +4925,7 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -4800,7 +4937,7 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -4830,13 +4967,13 @@
         <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
       <c r="AB59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="3">
         <v>100</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4856,31 +4996,31 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
       </c>
       <c r="I60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
       </c>
       <c r="K60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
@@ -4889,34 +5029,34 @@
         <v>900</v>
       </c>
       <c r="P60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
       </c>
       <c r="T60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U60" s="3">
         <v>800</v>
       </c>
       <c r="V60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="W60" s="3">
         <v>900</v>
       </c>
       <c r="X60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y60" s="3">
         <v>300</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
@@ -4925,7 +5065,7 @@
         <v>200</v>
       </c>
       <c r="AB60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC60" s="3">
         <v>300</v>
@@ -4934,10 +5074,13 @@
         <v>300</v>
       </c>
       <c r="AE60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5390,31 +5548,31 @@
         <v>1400</v>
       </c>
       <c r="E66" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
       </c>
       <c r="I66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1100</v>
       </c>
       <c r="K66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
@@ -5423,34 +5581,34 @@
         <v>900</v>
       </c>
       <c r="P66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>700</v>
       </c>
       <c r="T66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U66" s="3">
         <v>800</v>
       </c>
       <c r="V66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>900</v>
       </c>
       <c r="X66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y66" s="3">
         <v>300</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>200</v>
       </c>
       <c r="Z66" s="3">
         <v>200</v>
@@ -5459,7 +5617,7 @@
         <v>200</v>
       </c>
       <c r="AB66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC66" s="3">
         <v>300</v>
@@ -5468,10 +5626,13 @@
         <v>300</v>
       </c>
       <c r="AE66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5868,31 +6042,31 @@
         <v>-2100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F72" s="3">
         <v>-2000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="H72" s="3">
         <v>-1800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J72" s="3">
         <v>-1700</v>
       </c>
       <c r="K72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="L72" s="3">
         <v>-1600</v>
       </c>
       <c r="M72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="N72" s="3">
         <v>-1500</v>
@@ -5901,31 +6075,31 @@
         <v>-1500</v>
       </c>
       <c r="P72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="Q72" s="3">
         <v>-1400</v>
       </c>
       <c r="R72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-1200</v>
       </c>
       <c r="T72" s="3">
         <v>-1200</v>
       </c>
       <c r="U72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-700</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-600</v>
       </c>
       <c r="Y72" s="3">
         <v>-600</v>
@@ -5934,7 +6108,7 @@
         <v>-600</v>
       </c>
       <c r="AA72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="AB72" s="3">
         <v>-400</v>
@@ -5946,10 +6120,13 @@
         <v>-400</v>
       </c>
       <c r="AE72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6224,34 +6410,34 @@
         <v>-1100</v>
       </c>
       <c r="E76" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F76" s="3">
         <v>-1000</v>
       </c>
       <c r="G76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-800</v>
       </c>
       <c r="J76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K76" s="3">
         <v>-700</v>
       </c>
       <c r="L76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="M76" s="3">
         <v>-600</v>
       </c>
       <c r="N76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="O76" s="3">
         <v>-500</v>
@@ -6260,13 +6446,13 @@
         <v>-500</v>
       </c>
       <c r="Q76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
       </c>
       <c r="S76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T76" s="3">
         <v>-300</v>
@@ -6284,7 +6470,7 @@
         <v>-300</v>
       </c>
       <c r="Y76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Z76" s="3">
         <v>-200</v>
@@ -6293,7 +6479,7 @@
         <v>-200</v>
       </c>
       <c r="AB76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AC76" s="3">
         <v>-300</v>
@@ -6302,10 +6488,13 @@
         <v>-300</v>
       </c>
       <c r="AE76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AF76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,107 +6582,113 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -6508,20 +6703,20 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -6535,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -6547,23 +6742,23 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7197,19 +7414,19 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7595,11 +7825,11 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8070,14 +8316,14 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8248,14 +8500,14 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
